--- a/src/main/行业类型.xlsx
+++ b/src/main/行业类型.xlsx
@@ -1,18 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20827"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F63ECAE4-633C-4B53-B48A-9F49EC5AF650}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="28702"/>
+  <workbookPr filterPrivacy="1"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yuhaihui/self-project/aggregate-pay/src/main/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="360" yWindow="2055" windowWidth="24285" windowHeight="13545" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="51200" windowHeight="28340"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="122211" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -316,18 +328,18 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="DengXian"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="宋体"/>
+      <name val="DengXian"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -376,7 +388,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -418,12 +430,12 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="DengXian Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="Yu Gothic Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="DengXian Light"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -451,31 +463,14 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="DengXian" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="Yu Gothic"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="DengXian"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -503,23 +498,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -695,21 +673,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C43"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.625" customWidth="1"/>
-    <col min="3" max="3" width="150.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.6640625" customWidth="1"/>
+    <col min="3" max="3" width="150.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>80</v>
       </c>
@@ -717,7 +695,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -725,7 +703,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -736,7 +714,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -744,7 +722,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -755,7 +733,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -766,7 +744,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>10</v>
       </c>
@@ -777,7 +755,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>12</v>
       </c>
@@ -788,7 +766,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="27" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>14</v>
       </c>
@@ -799,7 +777,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>16</v>
       </c>
@@ -807,7 +785,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>18</v>
       </c>
@@ -815,7 +793,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>20</v>
       </c>
@@ -823,7 +801,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>22</v>
       </c>
@@ -831,7 +809,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>24</v>
       </c>
@@ -842,7 +820,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>26</v>
       </c>
@@ -850,7 +828,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>28</v>
       </c>
@@ -861,10 +839,10 @@
         <v>86</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C17" s="1"/>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>30</v>
       </c>
@@ -872,7 +850,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>32</v>
       </c>
@@ -880,7 +858,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>34</v>
       </c>
@@ -891,7 +869,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>36</v>
       </c>
@@ -899,7 +877,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>38</v>
       </c>
@@ -907,7 +885,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>40</v>
       </c>
@@ -915,7 +893,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>42</v>
       </c>
@@ -926,7 +904,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>44</v>
       </c>
@@ -934,7 +912,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>46</v>
       </c>
@@ -942,7 +920,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>48</v>
       </c>
@@ -950,7 +928,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>50</v>
       </c>
@@ -958,7 +936,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>52</v>
       </c>
@@ -966,7 +944,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>54</v>
       </c>
@@ -974,7 +952,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>56</v>
       </c>
@@ -982,7 +960,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>58</v>
       </c>
@@ -990,7 +968,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>60</v>
       </c>
@@ -998,7 +976,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>62</v>
       </c>
@@ -1006,7 +984,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>64</v>
       </c>
@@ -1014,7 +992,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>66</v>
       </c>
@@ -1022,7 +1000,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>68</v>
       </c>
@@ -1033,7 +1011,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>70</v>
       </c>
@@ -1041,7 +1019,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>72</v>
       </c>
@@ -1049,7 +1027,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>74</v>
       </c>
@@ -1057,7 +1035,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>76</v>
       </c>
@@ -1065,7 +1043,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>78</v>
       </c>
@@ -1081,12 +1059,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1094,12 +1072,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
